--- a/data/Arch/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Arch/Wiesbaden First Pass Acceptance.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4D1356-7694-4D59-985D-540619A8858B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43493C8-5420-47A1-B7DC-C92A86AFF72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="0" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="1275" yWindow="1725" windowWidth="20430" windowHeight="10995" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
     <sheet name="FPA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$1999</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FPA!$A$1:$J$2182</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13034" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14168" uniqueCount="917">
   <si>
     <t>SQA</t>
   </si>
@@ -2677,9 +2677,6 @@
     <t>Release 5.1</t>
   </si>
   <si>
-    <t>iSeries Upgrade V7.2 IA</t>
-  </si>
-  <si>
     <t>IT Process Test Script - GER42 upgrade</t>
   </si>
   <si>
@@ -2702,6 +2699,93 @@
   </si>
   <si>
     <t>PD-005425 Scan Barcode - TP2 - 2D Barcode Tests</t>
+  </si>
+  <si>
+    <t>Release 7.3.0.2</t>
+  </si>
+  <si>
+    <t>Release 7.5 expert</t>
+  </si>
+  <si>
+    <t>Release TLS upgrade</t>
+  </si>
+  <si>
+    <t>iSeries V7.2 ZARA Magic - GER400</t>
+  </si>
+  <si>
+    <t>Release Upgrade V7.2</t>
+  </si>
+  <si>
+    <t>WI_L28</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP1 - List of goods receipt positions</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP3 - F10 Test</t>
+  </si>
+  <si>
+    <t>PD-005425 Scan Barcode - TP4 - Regression Test</t>
+  </si>
+  <si>
+    <t>Release 01.90.01</t>
+  </si>
+  <si>
+    <t>WI_L29</t>
+  </si>
+  <si>
+    <t>INV-TF</t>
+  </si>
+  <si>
+    <t>Cognos</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#1</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#2</t>
+  </si>
+  <si>
+    <t>INF-UI-1 - GCC#3</t>
+  </si>
+  <si>
+    <t>TPM-SSF</t>
+  </si>
+  <si>
+    <t>Release 02.22.01</t>
+  </si>
+  <si>
+    <t>INF-UI-1.1.1</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Release 9.9</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Supplemental Items</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>WebApp</t>
+  </si>
+  <si>
+    <t>Release 01.06.03</t>
+  </si>
+  <si>
+    <t>SPOC 016.1</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>WI_C 35</t>
   </si>
 </sst>
 </file>
@@ -3092,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1818BC-AC9F-4D38-87AF-905538E5415F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3312,7 +3396,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C18" t="s">
         <v>668</v>
@@ -3328,7 +3412,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -3552,7 +3636,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -3584,11 +3668,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J1999"/>
+  <dimension ref="A1:J2182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1963" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2000" sqref="A2000"/>
+      <pane ySplit="1" topLeftCell="A2167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2183" sqref="A2183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3680,7 @@
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="47.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
@@ -55298,19 +55382,19 @@
         <v>2</v>
       </c>
       <c r="B1879" s="5" t="s">
-        <v>649</v>
+        <v>892</v>
       </c>
       <c r="C1879" s="5" t="s">
         <v>810</v>
       </c>
       <c r="D1879" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1879" s="5">
         <v>1</v>
       </c>
       <c r="F1879" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G1879" s="5" t="s">
         <v>31</v>
@@ -55336,7 +55420,7 @@
         <v>1</v>
       </c>
       <c r="F1880" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G1880" s="5" t="s">
         <v>31</v>
@@ -55346,25 +55430,25 @@
       </c>
     </row>
     <row r="1881" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1881" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>745</v>
-      </c>
-      <c r="C1881" t="s">
-        <v>78</v>
+      <c r="A1881" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1881" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1881" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1881" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1881">
+        <v>59</v>
+      </c>
+      <c r="E1881" s="5">
         <v>1</v>
       </c>
       <c r="F1881" t="s">
-        <v>870</v>
-      </c>
-      <c r="G1881" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1881" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1881" s="4">
@@ -55372,25 +55456,25 @@
       </c>
     </row>
     <row r="1882" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1882" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1882" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1882" s="5" t="s">
-        <v>85</v>
+      <c r="A1882" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>78</v>
       </c>
       <c r="D1882" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1882" s="5">
+        <v>667</v>
+      </c>
+      <c r="E1882">
         <v>1</v>
       </c>
       <c r="F1882" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1882" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1882" t="s">
         <v>31</v>
       </c>
       <c r="H1882" s="4">
@@ -55402,13 +55486,13 @@
         <v>2</v>
       </c>
       <c r="B1883" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1883" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1883" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E1883" s="5">
         <v>1</v>
@@ -55417,7 +55501,7 @@
         <v>23</v>
       </c>
       <c r="G1883" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1883" s="4">
         <v>44365</v>
@@ -55428,13 +55512,13 @@
         <v>2</v>
       </c>
       <c r="B1884" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1884" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1884" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E1884" s="5">
         <v>1</v>
@@ -55443,7 +55527,7 @@
         <v>23</v>
       </c>
       <c r="G1884" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1884" s="4">
         <v>44365</v>
@@ -55454,13 +55538,13 @@
         <v>2</v>
       </c>
       <c r="B1885" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1885" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1885" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E1885" s="5">
         <v>1</v>
@@ -55469,7 +55553,7 @@
         <v>23</v>
       </c>
       <c r="G1885" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1885" s="4">
         <v>44365</v>
@@ -55486,19 +55570,19 @@
         <v>85</v>
       </c>
       <c r="D1886" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="E1886" s="5">
         <v>1</v>
       </c>
       <c r="F1886" t="s">
-        <v>468</v>
+        <v>23</v>
       </c>
       <c r="G1886" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1886" s="4">
-        <v>44369</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="1887" spans="1:9" x14ac:dyDescent="0.25">
@@ -55512,13 +55596,13 @@
         <v>85</v>
       </c>
       <c r="D1887" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E1887" s="5">
         <v>1</v>
       </c>
       <c r="F1887" t="s">
-        <v>23</v>
+        <v>468</v>
       </c>
       <c r="G1887" s="5" t="s">
         <v>31</v>
@@ -55528,25 +55612,25 @@
       </c>
     </row>
     <row r="1888" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1888" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>830</v>
-      </c>
-      <c r="C1888" t="s">
-        <v>442</v>
+      <c r="A1888" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1888" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1888" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1888" t="s">
         <v>59</v>
       </c>
-      <c r="E1888">
+      <c r="E1888" s="5">
         <v>1</v>
       </c>
       <c r="F1888" t="s">
-        <v>864</v>
-      </c>
-      <c r="G1888" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1888" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1888" s="4">
@@ -55570,7 +55654,7 @@
         <v>1</v>
       </c>
       <c r="F1889" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G1889" t="s">
         <v>31</v>
@@ -55596,7 +55680,7 @@
         <v>1</v>
       </c>
       <c r="F1890" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G1890" t="s">
         <v>31</v>
@@ -55622,7 +55706,7 @@
         <v>1</v>
       </c>
       <c r="F1891" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G1891" t="s">
         <v>31</v>
@@ -55632,25 +55716,25 @@
       </c>
     </row>
     <row r="1892" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1892" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1892" s="5" t="s">
-        <v>649</v>
+      <c r="A1892" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>830</v>
       </c>
       <c r="C1892" t="s">
-        <v>758</v>
+        <v>442</v>
       </c>
       <c r="D1892" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1892" s="5">
+        <v>59</v>
+      </c>
+      <c r="E1892">
         <v>1</v>
       </c>
       <c r="F1892" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1892" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="G1892" t="s">
         <v>31</v>
       </c>
       <c r="H1892" s="4">
@@ -55658,25 +55742,25 @@
       </c>
     </row>
     <row r="1893" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1893" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>811</v>
+      <c r="A1893" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1893" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="C1893" t="s">
-        <v>88</v>
+        <v>758</v>
       </c>
       <c r="D1893" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1893">
+        <v>60</v>
+      </c>
+      <c r="E1893" s="5">
         <v>1</v>
       </c>
       <c r="F1893" t="s">
-        <v>863</v>
-      </c>
-      <c r="G1893" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1893" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1893" s="4">
@@ -55700,7 +55784,7 @@
         <v>1</v>
       </c>
       <c r="F1894" t="s">
-        <v>151</v>
+        <v>863</v>
       </c>
       <c r="G1894" t="s">
         <v>31</v>
@@ -55720,13 +55804,13 @@
         <v>88</v>
       </c>
       <c r="D1895" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E1895">
         <v>1</v>
       </c>
       <c r="F1895" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="G1895" t="s">
         <v>31</v>
@@ -55752,7 +55836,7 @@
         <v>1</v>
       </c>
       <c r="F1896" t="s">
-        <v>854</v>
+        <v>189</v>
       </c>
       <c r="G1896" t="s">
         <v>31</v>
@@ -55778,7 +55862,7 @@
         <v>1</v>
       </c>
       <c r="F1897" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G1897" t="s">
         <v>31</v>
@@ -55804,7 +55888,7 @@
         <v>1</v>
       </c>
       <c r="F1898" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G1898" t="s">
         <v>31</v>
@@ -55830,7 +55914,7 @@
         <v>1</v>
       </c>
       <c r="F1899" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G1899" t="s">
         <v>31</v>
@@ -55856,7 +55940,7 @@
         <v>1</v>
       </c>
       <c r="F1900" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G1900" t="s">
         <v>31</v>
@@ -55882,7 +55966,7 @@
         <v>1</v>
       </c>
       <c r="F1901" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G1901" t="s">
         <v>31</v>
@@ -55908,7 +55992,7 @@
         <v>1</v>
       </c>
       <c r="F1902" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1902" t="s">
         <v>31</v>
@@ -55934,7 +56018,7 @@
         <v>1</v>
       </c>
       <c r="F1903" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G1903" t="s">
         <v>31</v>
@@ -55960,7 +56044,7 @@
         <v>1</v>
       </c>
       <c r="F1904" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G1904" t="s">
         <v>31</v>
@@ -55980,16 +56064,16 @@
         <v>88</v>
       </c>
       <c r="D1905" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E1905">
         <v>1</v>
       </c>
       <c r="F1905" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
       <c r="G1905" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1905" s="4">
         <v>44369</v>
@@ -56012,10 +56096,10 @@
         <v>1</v>
       </c>
       <c r="F1906" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G1906" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1906" s="4">
         <v>44369</v>
@@ -56038,7 +56122,7 @@
         <v>1</v>
       </c>
       <c r="F1907" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G1907" t="s">
         <v>31</v>
@@ -56064,7 +56148,7 @@
         <v>1</v>
       </c>
       <c r="F1908" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G1908" t="s">
         <v>31</v>
@@ -56090,7 +56174,7 @@
         <v>1</v>
       </c>
       <c r="F1909" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G1909" t="s">
         <v>31</v>
@@ -56116,7 +56200,7 @@
         <v>1</v>
       </c>
       <c r="F1910" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G1910" t="s">
         <v>31</v>
@@ -56142,7 +56226,7 @@
         <v>1</v>
       </c>
       <c r="F1911" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G1911" t="s">
         <v>31</v>
@@ -56168,7 +56252,7 @@
         <v>1</v>
       </c>
       <c r="F1912" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G1912" t="s">
         <v>31</v>
@@ -56194,7 +56278,7 @@
         <v>1</v>
       </c>
       <c r="F1913" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G1913" t="s">
         <v>31</v>
@@ -56220,7 +56304,7 @@
         <v>1</v>
       </c>
       <c r="F1914" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G1914" t="s">
         <v>31</v>
@@ -56246,7 +56330,7 @@
         <v>1</v>
       </c>
       <c r="F1915" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G1915" t="s">
         <v>31</v>
@@ -56272,7 +56356,7 @@
         <v>1</v>
       </c>
       <c r="F1916" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G1916" t="s">
         <v>31</v>
@@ -56298,7 +56382,7 @@
         <v>1</v>
       </c>
       <c r="F1917" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G1917" t="s">
         <v>31</v>
@@ -56312,10 +56396,10 @@
         <v>1</v>
       </c>
       <c r="B1918" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="C1918" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="D1918" t="s">
         <v>14</v>
@@ -56324,16 +56408,13 @@
         <v>1</v>
       </c>
       <c r="F1918" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="G1918" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1918" s="4">
-        <v>44370</v>
-      </c>
-      <c r="I1918" t="s">
-        <v>22</v>
+        <v>44369</v>
       </c>
     </row>
     <row r="1919" spans="1:9" x14ac:dyDescent="0.25">
@@ -56353,7 +56434,7 @@
         <v>1</v>
       </c>
       <c r="F1919" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1919" t="s">
         <v>30</v>
@@ -56382,7 +56463,7 @@
         <v>1</v>
       </c>
       <c r="F1920" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G1920" t="s">
         <v>30</v>
@@ -56411,7 +56492,7 @@
         <v>1</v>
       </c>
       <c r="F1921" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1921" t="s">
         <v>30</v>
@@ -56440,7 +56521,7 @@
         <v>1</v>
       </c>
       <c r="F1922" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1922" t="s">
         <v>30</v>
@@ -56453,32 +56534,32 @@
       </c>
     </row>
     <row r="1923" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1923" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1923" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C1923" s="5" t="s">
-        <v>85</v>
+      <c r="A1923" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>264</v>
       </c>
       <c r="D1923" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1923" s="5">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="E1923">
+        <v>1</v>
       </c>
       <c r="F1923" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1923" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1923" t="s">
         <v>30</v>
       </c>
       <c r="H1923" s="4">
         <v>44370</v>
       </c>
       <c r="I1923" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1924" spans="1:9" x14ac:dyDescent="0.25">
@@ -56492,20 +56573,23 @@
         <v>85</v>
       </c>
       <c r="D1924" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E1924" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1924" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="G1924" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="F1924" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1924" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1924" s="4">
         <v>44370</v>
       </c>
+      <c r="I1924" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1925" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1925" s="5" t="s">
@@ -56518,23 +56602,20 @@
         <v>85</v>
       </c>
       <c r="D1925" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1925" s="5">
         <v>1</v>
       </c>
-      <c r="F1925" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1925" s="5" t="s">
-        <v>30</v>
+      <c r="F1925" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>31</v>
       </c>
       <c r="H1925" s="4">
         <v>44370</v>
       </c>
-      <c r="I1925" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1926" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1926" s="5" t="s">
@@ -56547,20 +56628,23 @@
         <v>85</v>
       </c>
       <c r="D1926" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E1926" s="5">
         <v>1</v>
       </c>
       <c r="F1926" t="s">
-        <v>789</v>
-      </c>
-      <c r="G1926" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1926" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H1926" s="4">
         <v>44370</v>
       </c>
+      <c r="I1926" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1927" s="5" t="s">
@@ -56579,9 +56663,9 @@
         <v>1</v>
       </c>
       <c r="F1927" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1927" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1927" t="s">
         <v>31</v>
       </c>
       <c r="H1927" s="4">
@@ -56589,32 +56673,29 @@
       </c>
     </row>
     <row r="1928" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1928" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>868</v>
-      </c>
-      <c r="C1928" t="s">
-        <v>268</v>
+      <c r="A1928" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1928" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1928" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1928" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1928">
+        <v>60</v>
+      </c>
+      <c r="E1928" s="5">
         <v>1</v>
       </c>
       <c r="F1928" t="s">
         <v>23</v>
       </c>
-      <c r="G1928" t="s">
-        <v>30</v>
+      <c r="G1928" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1928" s="4">
-        <v>44371</v>
-      </c>
-      <c r="I1928" t="s">
-        <v>22</v>
+        <v>44370</v>
       </c>
     </row>
     <row r="1929" spans="1:9" x14ac:dyDescent="0.25">
@@ -56628,7 +56709,7 @@
         <v>268</v>
       </c>
       <c r="D1929" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E1929">
         <v>1</v>
@@ -56657,7 +56738,7 @@
         <v>268</v>
       </c>
       <c r="D1930" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E1930">
         <v>1</v>
@@ -56686,7 +56767,7 @@
         <v>268</v>
       </c>
       <c r="D1931" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E1931">
         <v>1</v>
@@ -56709,47 +56790,50 @@
         <v>1</v>
       </c>
       <c r="B1932" t="s">
-        <v>745</v>
+        <v>868</v>
       </c>
       <c r="C1932" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="D1932" t="s">
-        <v>666</v>
+        <v>41</v>
       </c>
       <c r="E1932">
         <v>1</v>
       </c>
       <c r="F1932" t="s">
-        <v>870</v>
+        <v>23</v>
       </c>
       <c r="G1932" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1932" s="4">
         <v>44371</v>
       </c>
+      <c r="I1932" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1933" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1933" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1933" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1933" s="5" t="s">
-        <v>85</v>
+      <c r="A1933" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>78</v>
       </c>
       <c r="D1933" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1933" s="5">
+        <v>666</v>
+      </c>
+      <c r="E1933">
         <v>1</v>
       </c>
       <c r="F1933" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1933" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="G1933" t="s">
         <v>31</v>
       </c>
       <c r="H1933" s="4">
@@ -56761,13 +56845,13 @@
         <v>2</v>
       </c>
       <c r="B1934" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1934" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1934" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E1934" s="5">
         <v>1</v>
@@ -56787,7 +56871,7 @@
         <v>2</v>
       </c>
       <c r="B1935" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1935" s="5" t="s">
         <v>85</v>
@@ -56799,7 +56883,7 @@
         <v>1</v>
       </c>
       <c r="F1935" t="s">
-        <v>805</v>
+        <v>23</v>
       </c>
       <c r="G1935" s="5" t="s">
         <v>31</v>
@@ -56813,19 +56897,19 @@
         <v>2</v>
       </c>
       <c r="B1936" s="5" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="C1936" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1936" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1936" s="5">
         <v>1</v>
       </c>
       <c r="F1936" t="s">
-        <v>23</v>
+        <v>805</v>
       </c>
       <c r="G1936" s="5" t="s">
         <v>31</v>
@@ -56845,7 +56929,7 @@
         <v>85</v>
       </c>
       <c r="D1937" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1937" s="5">
         <v>1</v>
@@ -56871,7 +56955,7 @@
         <v>85</v>
       </c>
       <c r="D1938" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1938" s="5">
         <v>1</v>
@@ -56891,16 +56975,16 @@
         <v>2</v>
       </c>
       <c r="B1939" s="5" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="C1939" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1939" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E1939" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1939" t="s">
         <v>23</v>
@@ -56913,25 +56997,25 @@
       </c>
     </row>
     <row r="1940" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1940" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>869</v>
-      </c>
-      <c r="C1940" t="s">
-        <v>94</v>
+      <c r="A1940" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1940" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1940" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1940" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1940">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E1940" s="5">
+        <v>2</v>
       </c>
       <c r="F1940" t="s">
         <v>23</v>
       </c>
-      <c r="G1940" t="s">
+      <c r="G1940" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1940" s="4">
@@ -56939,29 +57023,29 @@
       </c>
     </row>
     <row r="1941" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1941" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1941" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1941" s="5" t="s">
-        <v>85</v>
+      <c r="A1941" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>869</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>94</v>
       </c>
       <c r="D1941" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1941" s="5">
+        <v>40</v>
+      </c>
+      <c r="E1941">
         <v>1</v>
       </c>
       <c r="F1941" t="s">
         <v>23</v>
       </c>
-      <c r="G1941" s="5" t="s">
+      <c r="G1941" t="s">
         <v>31</v>
       </c>
       <c r="H1941" s="4">
-        <v>44372</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="1942" spans="1:9" x14ac:dyDescent="0.25">
@@ -56975,7 +57059,7 @@
         <v>85</v>
       </c>
       <c r="D1942" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1942" s="5">
         <v>1</v>
@@ -57001,7 +57085,7 @@
         <v>85</v>
       </c>
       <c r="D1943" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1943" s="5">
         <v>1</v>
@@ -57017,25 +57101,25 @@
       </c>
     </row>
     <row r="1944" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1944" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1944" t="s">
-        <v>88</v>
+      <c r="A1944" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1944" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1944" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1944" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1944">
+        <v>60</v>
+      </c>
+      <c r="E1944" s="5">
         <v>1</v>
       </c>
       <c r="F1944" t="s">
         <v>23</v>
       </c>
-      <c r="G1944" t="s">
+      <c r="G1944" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H1944" s="4">
@@ -57053,13 +57137,13 @@
         <v>88</v>
       </c>
       <c r="D1945" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E1945">
         <v>1</v>
       </c>
       <c r="F1945" t="s">
-        <v>863</v>
+        <v>23</v>
       </c>
       <c r="G1945" t="s">
         <v>31</v>
@@ -57073,55 +57157,55 @@
         <v>1</v>
       </c>
       <c r="B1946" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1946">
+        <v>1</v>
+      </c>
+      <c r="F1946" t="s">
+        <v>863</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1946" s="4">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1947" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1947" t="s">
         <v>871</v>
       </c>
-      <c r="C1946" t="s">
+      <c r="C1947" t="s">
         <v>264</v>
       </c>
-      <c r="D1946" t="s">
+      <c r="D1947" t="s">
         <v>45</v>
       </c>
-      <c r="E1946">
-        <v>1</v>
-      </c>
-      <c r="F1946" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1946" t="s">
+      <c r="E1947">
+        <v>1</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1947" t="s">
         <v>30</v>
-      </c>
-      <c r="H1946" s="4">
-        <v>44375</v>
-      </c>
-      <c r="I1946" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1947" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1947" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1947" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1947" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1947" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1947" t="s">
-        <v>806</v>
-      </c>
-      <c r="G1947" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H1947" s="4">
         <v>44375</v>
       </c>
+      <c r="I1947" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1948" s="5" t="s">
@@ -57134,13 +57218,13 @@
         <v>85</v>
       </c>
       <c r="D1948" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1948" s="5">
         <v>1</v>
       </c>
       <c r="F1948" t="s">
-        <v>23</v>
+        <v>806</v>
       </c>
       <c r="G1948" s="5" t="s">
         <v>31</v>
@@ -57150,33 +57234,30 @@
       </c>
     </row>
     <row r="1949" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1949" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>811</v>
-      </c>
-      <c r="C1949" t="s">
-        <v>88</v>
+      <c r="A1949" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1949" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1949" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1949" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1949">
+        <v>65</v>
+      </c>
+      <c r="E1949" s="5">
         <v>1</v>
       </c>
       <c r="F1949" t="s">
         <v>23</v>
       </c>
-      <c r="G1949" t="s">
-        <v>30</v>
+      <c r="G1949" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H1949" s="4">
         <v>44375</v>
       </c>
-      <c r="I1949" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1950" t="s">
@@ -57198,11 +57279,14 @@
         <v>23</v>
       </c>
       <c r="G1950" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1950" s="4">
         <v>44375</v>
       </c>
+      <c r="I1950" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1951" t="s">
@@ -57215,16 +57299,16 @@
         <v>88</v>
       </c>
       <c r="D1951" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E1951">
         <v>1</v>
       </c>
       <c r="F1951" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G1951" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1951" s="4">
         <v>44375</v>
@@ -57247,7 +57331,7 @@
         <v>1</v>
       </c>
       <c r="F1952" t="s">
-        <v>854</v>
+        <v>189</v>
       </c>
       <c r="G1952" t="s">
         <v>31</v>
@@ -57273,7 +57357,7 @@
         <v>1</v>
       </c>
       <c r="F1953" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G1953" t="s">
         <v>31</v>
@@ -57299,7 +57383,7 @@
         <v>1</v>
       </c>
       <c r="F1954" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G1954" t="s">
         <v>31</v>
@@ -57325,7 +57409,7 @@
         <v>1</v>
       </c>
       <c r="F1955" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G1955" t="s">
         <v>31</v>
@@ -57351,7 +57435,7 @@
         <v>1</v>
       </c>
       <c r="F1956" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G1956" t="s">
         <v>31</v>
@@ -57377,7 +57461,7 @@
         <v>1</v>
       </c>
       <c r="F1957" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G1957" t="s">
         <v>31</v>
@@ -57403,7 +57487,7 @@
         <v>1</v>
       </c>
       <c r="F1958" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1958" t="s">
         <v>31</v>
@@ -57429,7 +57513,7 @@
         <v>1</v>
       </c>
       <c r="F1959" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G1959" t="s">
         <v>31</v>
@@ -57455,7 +57539,7 @@
         <v>1</v>
       </c>
       <c r="F1960" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G1960" t="s">
         <v>31</v>
@@ -57469,28 +57553,25 @@
         <v>1</v>
       </c>
       <c r="B1961" t="s">
-        <v>609</v>
+        <v>811</v>
       </c>
       <c r="C1961" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="D1961" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E1961">
         <v>1</v>
       </c>
       <c r="F1961" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="G1961" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1961" s="4">
-        <v>44376</v>
-      </c>
-      <c r="I1961" t="s">
-        <v>22</v>
+        <v>44375</v>
       </c>
     </row>
     <row r="1962" spans="1:9" x14ac:dyDescent="0.25">
@@ -57510,7 +57591,7 @@
         <v>1</v>
       </c>
       <c r="F1962" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1962" t="s">
         <v>30</v>
@@ -57539,7 +57620,7 @@
         <v>1</v>
       </c>
       <c r="F1963" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G1963" t="s">
         <v>30</v>
@@ -57568,7 +57649,7 @@
         <v>1</v>
       </c>
       <c r="F1964" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G1964" t="s">
         <v>30</v>
@@ -57597,7 +57678,7 @@
         <v>1</v>
       </c>
       <c r="F1965" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G1965" t="s">
         <v>30</v>
@@ -57626,13 +57707,13 @@
         <v>1</v>
       </c>
       <c r="F1966" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="G1966" t="s">
         <v>30</v>
       </c>
       <c r="H1966" s="4">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="I1966" t="s">
         <v>22</v>
@@ -57655,7 +57736,7 @@
         <v>1</v>
       </c>
       <c r="F1967" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G1967" t="s">
         <v>30</v>
@@ -57684,7 +57765,7 @@
         <v>1</v>
       </c>
       <c r="F1968" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G1968" t="s">
         <v>30</v>
@@ -57713,7 +57794,7 @@
         <v>1</v>
       </c>
       <c r="F1969" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G1969" t="s">
         <v>30</v>
@@ -57742,7 +57823,7 @@
         <v>1</v>
       </c>
       <c r="F1970" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G1970" t="s">
         <v>30</v>
@@ -57771,7 +57852,7 @@
         <v>1</v>
       </c>
       <c r="F1971" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G1971" t="s">
         <v>30</v>
@@ -57784,30 +57865,33 @@
       </c>
     </row>
     <row r="1972" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1972" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1972" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1972" s="5" t="s">
-        <v>810</v>
+      <c r="A1972" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>264</v>
       </c>
       <c r="D1972" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1972" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1972" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="G1972" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E1972">
+        <v>1</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>877</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>30</v>
       </c>
       <c r="H1972" s="4">
         <v>44377</v>
       </c>
+      <c r="I1972" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="1973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1973" s="5" t="s">
@@ -57820,13 +57904,13 @@
         <v>810</v>
       </c>
       <c r="D1973" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1973" s="5">
         <v>1</v>
       </c>
       <c r="F1973" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G1973" s="5" t="s">
         <v>31</v>
@@ -57852,7 +57936,7 @@
         <v>1</v>
       </c>
       <c r="F1974" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G1974" s="5" t="s">
         <v>31</v>
@@ -57866,19 +57950,19 @@
         <v>2</v>
       </c>
       <c r="B1975" s="5" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C1975" s="5" t="s">
-        <v>85</v>
+        <v>810</v>
       </c>
       <c r="D1975" t="s">
-        <v>666</v>
+        <v>41</v>
       </c>
       <c r="E1975" s="5">
         <v>1</v>
       </c>
       <c r="F1975" s="7" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="G1975" s="5" t="s">
         <v>31</v>
@@ -57892,19 +57976,19 @@
         <v>2</v>
       </c>
       <c r="B1976" s="5" t="s">
-        <v>788</v>
+        <v>665</v>
       </c>
       <c r="C1976" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D1976" t="s">
-        <v>63</v>
+        <v>666</v>
       </c>
       <c r="E1976" s="5">
-        <v>2</v>
-      </c>
-      <c r="F1976" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="F1976" s="7" t="s">
+        <v>790</v>
       </c>
       <c r="G1976" s="5" t="s">
         <v>31</v>
@@ -57918,7 +58002,7 @@
         <v>2</v>
       </c>
       <c r="B1977" s="5" t="s">
-        <v>581</v>
+        <v>788</v>
       </c>
       <c r="C1977" s="5" t="s">
         <v>85</v>
@@ -57944,16 +58028,16 @@
         <v>2</v>
       </c>
       <c r="B1978" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1978" t="s">
-        <v>878</v>
+        <v>581</v>
+      </c>
+      <c r="C1978" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D1978" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E1978" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1978" t="s">
         <v>23</v>
@@ -57962,7 +58046,7 @@
         <v>31</v>
       </c>
       <c r="H1978" s="4">
-        <v>44378</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="1979" spans="1:9" x14ac:dyDescent="0.25">
@@ -57970,13 +58054,13 @@
         <v>2</v>
       </c>
       <c r="B1979" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1979" s="5" t="s">
-        <v>810</v>
+        <v>612</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>611</v>
       </c>
       <c r="D1979" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E1979" s="5">
         <v>1</v>
@@ -57999,13 +58083,13 @@
         <v>2</v>
       </c>
       <c r="B1980" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="C1980" t="s">
-        <v>92</v>
+        <v>890</v>
+      </c>
+      <c r="C1980" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1980" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E1980" s="5">
         <v>1</v>
@@ -58014,13 +58098,10 @@
         <v>23</v>
       </c>
       <c r="G1980" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1980" s="4">
-        <v>44379</v>
-      </c>
-      <c r="I1980" t="s">
-        <v>15</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1981" spans="1:9" x14ac:dyDescent="0.25">
@@ -58028,13 +58109,13 @@
         <v>2</v>
       </c>
       <c r="B1981" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1981" t="s">
-        <v>611</v>
+        <v>890</v>
+      </c>
+      <c r="C1981" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1981" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E1981" s="5">
         <v>1</v>
@@ -58043,13 +58124,10 @@
         <v>23</v>
       </c>
       <c r="G1981" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1981" s="4">
-        <v>44379</v>
-      </c>
-      <c r="I1981" t="s">
-        <v>15</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1982" spans="1:9" x14ac:dyDescent="0.25">
@@ -58057,13 +58135,13 @@
         <v>2</v>
       </c>
       <c r="B1982" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1982" t="s">
-        <v>611</v>
+        <v>892</v>
+      </c>
+      <c r="C1982" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1982" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E1982" s="5">
         <v>1</v>
@@ -58072,27 +58150,24 @@
         <v>23</v>
       </c>
       <c r="G1982" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1982" s="4">
         <v>44378</v>
       </c>
-      <c r="I1982" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1983" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B1983" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1983" t="s">
-        <v>611</v>
+        <v>649</v>
+      </c>
+      <c r="C1983" s="5" t="s">
+        <v>810</v>
       </c>
       <c r="D1983" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1983" s="5">
         <v>1</v>
@@ -58101,10 +58176,13 @@
         <v>23</v>
       </c>
       <c r="G1983" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1983" s="4">
-        <v>44379</v>
+        <v>44378</v>
+      </c>
+      <c r="I1983" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1984" spans="1:9" x14ac:dyDescent="0.25">
@@ -58112,13 +58190,13 @@
         <v>2</v>
       </c>
       <c r="B1984" s="5" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="C1984" t="s">
-        <v>611</v>
+        <v>878</v>
       </c>
       <c r="D1984" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E1984" s="5">
         <v>1</v>
@@ -58127,10 +58205,10 @@
         <v>23</v>
       </c>
       <c r="G1984" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H1984" s="4">
-        <v>44382</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="1985" spans="1:9" x14ac:dyDescent="0.25">
@@ -58144,7 +58222,7 @@
         <v>611</v>
       </c>
       <c r="D1985" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1985" s="5">
         <v>1</v>
@@ -58156,7 +58234,7 @@
         <v>31</v>
       </c>
       <c r="H1985" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1986" spans="1:9" x14ac:dyDescent="0.25">
@@ -58170,7 +58248,7 @@
         <v>611</v>
       </c>
       <c r="D1986" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="E1986" s="5">
         <v>1</v>
@@ -58179,375 +58257,5243 @@
         <v>23</v>
       </c>
       <c r="G1986" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1986" s="4">
-        <v>44382</v>
+        <v>44379</v>
+      </c>
+      <c r="I1986" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="1987" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1987" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1987" s="5" t="s">
-        <v>612</v>
+      <c r="A1987" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>609</v>
       </c>
       <c r="C1987" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1987" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1987" s="5">
+        <v>43</v>
+      </c>
+      <c r="E1987">
         <v>1</v>
       </c>
       <c r="F1987" t="s">
         <v>23</v>
       </c>
-      <c r="G1987" s="5" t="s">
-        <v>31</v>
+      <c r="G1987" t="s">
+        <v>29</v>
       </c>
       <c r="H1987" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1988" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1988" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1988" s="5" t="s">
-        <v>612</v>
+      <c r="A1988" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>871</v>
       </c>
       <c r="C1988" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1988" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1988" s="5">
+        <v>56</v>
+      </c>
+      <c r="E1988">
         <v>1</v>
       </c>
       <c r="F1988" t="s">
         <v>23</v>
       </c>
-      <c r="G1988" s="5" t="s">
+      <c r="G1988" t="s">
         <v>31</v>
       </c>
       <c r="H1988" s="4">
-        <v>44382</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1989" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1989" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1989" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1989" s="5" t="s">
-        <v>810</v>
+      <c r="A1989" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>264</v>
       </c>
       <c r="D1989" t="s">
         <v>44</v>
       </c>
-      <c r="E1989" s="5">
+      <c r="E1989">
         <v>1</v>
       </c>
       <c r="F1989" t="s">
-        <v>880</v>
-      </c>
-      <c r="G1989" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1989" t="s">
         <v>31</v>
       </c>
       <c r="H1989" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1990" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1990" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1990" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1990" s="5" t="s">
-        <v>810</v>
+      <c r="A1990" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>264</v>
       </c>
       <c r="D1990" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1990" s="5">
+        <v>41</v>
+      </c>
+      <c r="E1990">
         <v>1</v>
       </c>
       <c r="F1990" t="s">
-        <v>882</v>
-      </c>
-      <c r="G1990" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1990" t="s">
         <v>31</v>
       </c>
       <c r="H1990" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1991" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1991" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1991" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1991" s="5" t="s">
-        <v>810</v>
+      <c r="A1991" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>871</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>264</v>
       </c>
       <c r="D1991" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1991" s="5">
+        <v>45</v>
+      </c>
+      <c r="E1991">
         <v>1</v>
       </c>
       <c r="F1991" t="s">
-        <v>881</v>
-      </c>
-      <c r="G1991" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>29</v>
       </c>
       <c r="H1991" s="4">
-        <v>44383</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1992" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1992" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1992" s="5" t="s">
-        <v>612</v>
+      <c r="A1992" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>609</v>
       </c>
       <c r="C1992" t="s">
-        <v>611</v>
+        <v>264</v>
       </c>
       <c r="D1992" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1992" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1992">
         <v>1</v>
       </c>
       <c r="F1992" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1992" s="5" t="s">
-        <v>31</v>
+        <v>874</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>30</v>
       </c>
       <c r="H1992" s="4">
-        <v>44384</v>
+        <v>44379</v>
+      </c>
+      <c r="I1992" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1993" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1993" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1993" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1993" s="5" t="s">
-        <v>85</v>
+      <c r="A1993" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>264</v>
       </c>
       <c r="D1993" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1993" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1993">
         <v>1</v>
       </c>
       <c r="F1993" t="s">
-        <v>884</v>
-      </c>
-      <c r="G1993" s="5" t="s">
-        <v>31</v>
+        <v>877</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>30</v>
       </c>
       <c r="H1993" s="4">
-        <v>44384</v>
+        <v>44379</v>
+      </c>
+      <c r="I1993" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1994" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1994" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1994" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1994" s="5" t="s">
-        <v>85</v>
+      <c r="A1994" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>264</v>
       </c>
       <c r="D1994" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1994" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1994">
         <v>1</v>
       </c>
       <c r="F1994" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1994" s="5" t="s">
-        <v>30</v>
+        <v>837</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>29</v>
       </c>
       <c r="H1994" s="4">
-        <v>44385</v>
-      </c>
-      <c r="I1994" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1995" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1995" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1995" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1995" s="5" t="s">
-        <v>85</v>
+      <c r="A1995" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>264</v>
       </c>
       <c r="D1995" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1995" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1995">
         <v>1</v>
       </c>
       <c r="F1995" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1995" s="5" t="s">
-        <v>30</v>
+        <v>838</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>29</v>
       </c>
       <c r="H1995" s="4">
-        <v>44385</v>
-      </c>
-      <c r="I1995" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1996" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1996" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1996" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1996" s="5" t="s">
-        <v>786</v>
+      <c r="A1996" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>264</v>
       </c>
       <c r="D1996" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1996" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1996">
         <v>1</v>
       </c>
       <c r="F1996" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1996" s="5" t="s">
-        <v>31</v>
+        <v>839</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>29</v>
       </c>
       <c r="H1996" s="4">
-        <v>44386</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1997" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1997" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1997" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1997" s="5" t="s">
-        <v>85</v>
+      <c r="A1997" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>264</v>
       </c>
       <c r="D1997" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1997" s="5">
+        <v>14</v>
+      </c>
+      <c r="E1997">
         <v>1</v>
       </c>
       <c r="F1997" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1997" s="5" t="s">
-        <v>30</v>
+        <v>840</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>29</v>
       </c>
       <c r="H1997" s="4">
-        <v>44386</v>
-      </c>
-      <c r="I1997" t="s">
-        <v>15</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="1998" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1998" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1998" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1998" s="5" t="s">
-        <v>85</v>
+      <c r="A1998" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>264</v>
       </c>
       <c r="D1998" t="s">
         <v>14</v>
       </c>
-      <c r="E1998" s="5">
+      <c r="E1998">
         <v>1</v>
       </c>
       <c r="F1998" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1998" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1998" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1999" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1999">
+        <v>1</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>899</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1999" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2000" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2000">
+        <v>1</v>
+      </c>
+      <c r="F2000" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2000" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2001" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2001">
+        <v>1</v>
+      </c>
+      <c r="F2001" t="s">
+        <v>864</v>
+      </c>
+      <c r="G2001" t="s">
         <v>30</v>
       </c>
-      <c r="H1998" s="4">
+      <c r="H2001" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2001" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2002" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2002">
+        <v>1</v>
+      </c>
+      <c r="F2002" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2002" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2002" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2003" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2003">
+        <v>1</v>
+      </c>
+      <c r="F2003" t="s">
+        <v>866</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2003" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2004" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2004">
+        <v>1</v>
+      </c>
+      <c r="F2004" t="s">
+        <v>867</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2004" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2005" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2005">
+        <v>1</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2005" s="4">
+        <v>44379</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2006" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2006" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2006" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2006" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2006" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2006" s="4">
+        <v>44379</v>
+      </c>
+      <c r="I2006" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2007" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2007" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2007" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2007" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2007" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2008" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2008" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2008" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2008" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2008" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2008" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2009" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2009" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2009" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2009" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2009" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2009" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2010" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2010" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2010" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2010" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2010" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2010" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2011" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2011" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2011" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2011" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2011" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2011" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2012" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2012">
+        <v>1</v>
+      </c>
+      <c r="F2012" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2012" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2013" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2013">
+        <v>1</v>
+      </c>
+      <c r="F2013" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2013" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2013" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2014" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2014">
+        <v>1</v>
+      </c>
+      <c r="F2014" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2014" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2014" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2015" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2015">
+        <v>1</v>
+      </c>
+      <c r="F2015" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2015" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2015" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2016" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2016">
+        <v>2</v>
+      </c>
+      <c r="F2016" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2016" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2016" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2017" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2017">
+        <v>2</v>
+      </c>
+      <c r="F2017" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2017" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2017" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2018" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2018">
+        <v>1</v>
+      </c>
+      <c r="F2018" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2018" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2018" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2019" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2019">
+        <v>1</v>
+      </c>
+      <c r="F2019" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2019" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2019" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2020" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2020">
+        <v>1</v>
+      </c>
+      <c r="F2020" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2020" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2020" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2021" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2021">
+        <v>1</v>
+      </c>
+      <c r="F2021" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2021" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2021" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2022" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2022">
+        <v>1</v>
+      </c>
+      <c r="F2022" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2022" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2022" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2023" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2023">
+        <v>1</v>
+      </c>
+      <c r="F2023" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2023" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2023" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2024" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2024">
+        <v>1</v>
+      </c>
+      <c r="F2024" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2024" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2024" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2025" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2025">
+        <v>1</v>
+      </c>
+      <c r="F2025" t="s">
+        <v>877</v>
+      </c>
+      <c r="G2025" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2025" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2026" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2026">
+        <v>1</v>
+      </c>
+      <c r="F2026" t="s">
+        <v>876</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2026" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2027" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2027">
+        <v>1</v>
+      </c>
+      <c r="F2027" t="s">
+        <v>875</v>
+      </c>
+      <c r="G2027" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2027" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2028" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2028">
+        <v>1</v>
+      </c>
+      <c r="F2028" t="s">
+        <v>872</v>
+      </c>
+      <c r="G2028" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2028" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2029" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2029">
+        <v>1</v>
+      </c>
+      <c r="F2029" t="s">
+        <v>904</v>
+      </c>
+      <c r="G2029" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2029" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2030" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2030">
+        <v>1</v>
+      </c>
+      <c r="F2030" t="s">
+        <v>874</v>
+      </c>
+      <c r="G2030" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2030" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2031" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2031">
+        <v>1</v>
+      </c>
+      <c r="F2031" t="s">
+        <v>873</v>
+      </c>
+      <c r="G2031" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2031" s="4">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2032" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2032">
+        <v>2</v>
+      </c>
+      <c r="F2032" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2032" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2032" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2033" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2033">
+        <v>2</v>
+      </c>
+      <c r="F2033" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2033" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2033" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2034" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2034">
+        <v>1</v>
+      </c>
+      <c r="F2034" t="s">
+        <v>863</v>
+      </c>
+      <c r="G2034" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2034" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2035" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2035">
+        <v>2</v>
+      </c>
+      <c r="F2035" t="s">
+        <v>863</v>
+      </c>
+      <c r="G2035" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2035" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2036" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2036">
+        <v>1</v>
+      </c>
+      <c r="F2036" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2036" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2036" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2037" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2037" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2037" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2037" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2037" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2037" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2037" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2038" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2038" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2038" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2038" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2038" t="s">
+        <v>881</v>
+      </c>
+      <c r="G2038" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2038" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2039" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2039" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2039" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2039" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2039" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2039" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2039" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2040" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2040" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2040" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2040" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2040" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2040" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2040" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2041" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2041" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2041" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2041" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2041" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2041" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2041" s="4">
+        <v>44383</v>
+      </c>
+      <c r="I2041" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2042" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2042">
+        <v>1</v>
+      </c>
+      <c r="F2042" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2042" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2042" s="4">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2043" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2043">
+        <v>1</v>
+      </c>
+      <c r="F2043" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2043" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2043" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2044" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2044">
+        <v>1</v>
+      </c>
+      <c r="F2044" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2044" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2044" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2045" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2045" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2045" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2045" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2045" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2045" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2046" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2046">
+        <v>1</v>
+      </c>
+      <c r="F2046" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2046" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2046" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2047" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2047">
+        <v>1</v>
+      </c>
+      <c r="F2047" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2047" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2047" s="4">
+        <v>44384</v>
+      </c>
+      <c r="I2047" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2048" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2048">
+        <v>1</v>
+      </c>
+      <c r="F2048" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2048" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2048" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2049" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2049">
+        <v>1</v>
+      </c>
+      <c r="F2049" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2049" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2049" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2050" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2050">
+        <v>1</v>
+      </c>
+      <c r="F2050" t="s">
+        <v>906</v>
+      </c>
+      <c r="G2050" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2050" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2051" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2051" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2051" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2051" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2051" t="s">
+        <v>883</v>
+      </c>
+      <c r="G2051" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2051" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2052" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2052">
+        <v>1</v>
+      </c>
+      <c r="F2052" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2052" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2052" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2052" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2053" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2053">
+        <v>1</v>
+      </c>
+      <c r="F2053" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2053" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2053" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2053" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2054" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2054">
+        <v>1</v>
+      </c>
+      <c r="F2054" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2054" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2054" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2055" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2055">
+        <v>1</v>
+      </c>
+      <c r="F2055" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2055" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2055" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2055" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2056" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2056">
+        <v>1</v>
+      </c>
+      <c r="F2056" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2056" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2056" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2057" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2057">
+        <v>1</v>
+      </c>
+      <c r="F2057" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2057" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2057" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2058" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2058">
+        <v>1</v>
+      </c>
+      <c r="F2058" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2058" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2058" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2059" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2059">
+        <v>1</v>
+      </c>
+      <c r="F2059" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2059" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2059" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2059" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2060" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2060">
+        <v>1</v>
+      </c>
+      <c r="F2060" t="s">
+        <v>901</v>
+      </c>
+      <c r="G2060" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2060" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2061" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2061">
+        <v>1</v>
+      </c>
+      <c r="F2061" t="s">
+        <v>902</v>
+      </c>
+      <c r="G2061" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2061" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2062" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2062">
+        <v>1</v>
+      </c>
+      <c r="F2062" t="s">
+        <v>903</v>
+      </c>
+      <c r="G2062" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2062" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2063" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2063">
+        <v>1</v>
+      </c>
+      <c r="F2063" t="s">
+        <v>906</v>
+      </c>
+      <c r="G2063" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2063" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2064" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2064" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2064" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2064" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2064" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2064" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2064" s="4">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2065" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2065" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2065" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2065" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2065" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2065" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2065" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2065" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2066" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2066" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2066" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2066" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2066" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2066" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2066" s="4">
+        <v>44385</v>
+      </c>
+      <c r="I2066" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2067" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2067" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2067" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2067" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2067" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2067" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2067" s="4">
         <v>44386</v>
       </c>
-      <c r="I1998" t="s">
+      <c r="I2067" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1999" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1999" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1999" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="C1999" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1999" t="s">
+    <row r="2068" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2068" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2068" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2068" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2068" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2068" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2068" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2068" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2068" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2069" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2069" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2069" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2069" t="s">
         <v>59</v>
       </c>
-      <c r="E1999" s="5">
-        <v>1</v>
-      </c>
-      <c r="F1999" t="s">
+      <c r="E2069" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2069" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2069" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2069" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2069" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2070" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2070" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2070" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2070" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2070" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2070" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2070" s="4">
+        <v>44386</v>
+      </c>
+      <c r="I2070" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2071" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2071" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2071" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2071" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2071" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2071" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2071" s="4">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2072" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2072">
+        <v>1</v>
+      </c>
+      <c r="F2072" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2072" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2072" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2072" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2073" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2073">
+        <v>1</v>
+      </c>
+      <c r="F2073" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2073" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2073" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2073" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2074" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2074">
+        <v>1</v>
+      </c>
+      <c r="F2074" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2074" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2074" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2074" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2075" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2075">
+        <v>1</v>
+      </c>
+      <c r="F2075" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2075" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2075" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2076" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2076">
+        <v>1</v>
+      </c>
+      <c r="F2076" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2076" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2076" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2077" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2077">
+        <v>1</v>
+      </c>
+      <c r="F2077" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2077" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2077" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2078" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2078" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2078">
+        <v>1</v>
+      </c>
+      <c r="F2078" t="s">
+        <v>909</v>
+      </c>
+      <c r="G2078" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2078" s="4">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2079" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2079" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2079">
+        <v>1</v>
+      </c>
+      <c r="F2079" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2079" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2079" s="4">
+        <v>44389</v>
+      </c>
+      <c r="I2079" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2080" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2080" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2080">
+        <v>1</v>
+      </c>
+      <c r="F2080" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2080" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2080" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2080" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2081" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2081" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2081">
+        <v>1</v>
+      </c>
+      <c r="F2081" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2081" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2081" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2081" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2082" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2082" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2082">
+        <v>1</v>
+      </c>
+      <c r="F2082" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2082" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2082" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2082" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2083" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2083" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2083">
+        <v>1</v>
+      </c>
+      <c r="F2083" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2083" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2083" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2084" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2084" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2084">
+        <v>1</v>
+      </c>
+      <c r="F2084" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2084" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2084" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2085" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2085" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2085">
+        <v>1</v>
+      </c>
+      <c r="F2085" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2085" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2085" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2085" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2086" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2086" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>886</v>
+      </c>
+      <c r="D2086" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2086" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2086" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2086" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2086" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2087" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2087" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>885</v>
+      </c>
+      <c r="D2087" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2087" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2087" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2087" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2087" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2088" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2088" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2088" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2088" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2088" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2088" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2088" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2088" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2089" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2089" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2089" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2089" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2089" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2089" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2089" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2089" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2090" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2090" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C2090" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2090" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2090" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2090" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="G2090" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2090" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2091" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2091" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2091" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2091" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2091" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2091" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2091" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2091" s="4">
+        <v>44390</v>
+      </c>
+      <c r="I2091" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2092" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2092" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2092" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2092" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2092" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2092" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2092" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2092" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2093" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2093" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2093" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2093" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2093" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2093" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2093" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2093" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2094" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2094" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2094" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2094" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2094" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2094" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2094" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2094" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2095" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2095" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2095" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2095" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2095" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2095" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2095" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2095" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2096" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2096" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2096" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2096" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2096" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2096" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2096" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2096" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2097" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2097" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2097" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2097" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2097" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2097" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2097" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2098" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2098" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2098" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2098" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2098" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2098" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2098" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2099" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2099" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2099">
+        <v>1</v>
+      </c>
+      <c r="F2099" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2099" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2099" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2100" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="G1999" s="5" t="s">
+      <c r="C2100" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2100" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2100" s="4">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2101">
+        <v>1</v>
+      </c>
+      <c r="F2101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2101" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2102">
+        <v>1</v>
+      </c>
+      <c r="F2102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2102" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2103">
+        <v>1</v>
+      </c>
+      <c r="F2103" t="s">
+        <v>864</v>
+      </c>
+      <c r="G2103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2103" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2104">
+        <v>1</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>865</v>
+      </c>
+      <c r="G2104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2104" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2105">
+        <v>1</v>
+      </c>
+      <c r="F2105" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2105" t="s">
         <v>30</v>
       </c>
-      <c r="H1999" s="4">
-        <v>44386</v>
-      </c>
-      <c r="I1999" t="s">
+      <c r="H2105" s="4">
+        <v>44391</v>
+      </c>
+      <c r="I2105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>830</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2106">
+        <v>1</v>
+      </c>
+      <c r="F2106" t="s">
+        <v>900</v>
+      </c>
+      <c r="G2106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2106" s="4">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2107" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2107" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2107" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2107" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="G2107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2107" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2108" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2108" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2108" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2108" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2108" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2109" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2109" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2109" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2110" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2110" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2110" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2110" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2110" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2111" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2111" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2111" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2111" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2112" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2112" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2112" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2113" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2113" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2113" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>895</v>
+      </c>
+      <c r="G2113" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2113" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2114" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2114" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2114" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2114" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2115" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2115" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2115" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2116" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2116" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2116" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2116" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2116" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2117" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2117" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2117" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2118" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C2118" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2118" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2118" s="4">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2119" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2119" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2119" s="4">
+        <v>44392</v>
+      </c>
+      <c r="I2119" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="2120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2120" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2120" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2120" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2120" s="4">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2121" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2121" s="4">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2122">
+        <v>1</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2122" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2123">
+        <v>1</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2123" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2124">
+        <v>1</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2124" s="4">
+        <v>44396</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2125" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2125" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2125" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2125" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2126" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2126" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2126" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2126" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2127" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2127" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2127" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2127" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2128" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2128" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2128" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2128" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2129" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2129" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2129" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2129" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2129" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2130" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2130" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2130" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2130" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2130" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2131" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2131" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2131" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2132" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2132" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2132" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2132" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2133" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2133" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2133" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2133" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2133" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2134" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2134" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2134" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2134" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2135" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2135" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2135" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2135" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2135" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2136" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2136" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2136" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2136" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2136" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2137" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2137" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2137" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2137" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2137" s="4">
+        <v>44397</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2138" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C2138" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2138" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2138" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2139">
+        <v>1</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2139" s="4">
+        <v>44398</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2140">
+        <v>1</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2140" s="4">
+        <v>44398</v>
+      </c>
+      <c r="I2140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2141">
+        <v>1</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2141" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2142">
+        <v>1</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2142" s="4">
+        <v>44399</v>
+      </c>
+      <c r="I2142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2143">
+        <v>1</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2143" s="4">
+        <v>44399</v>
+      </c>
+      <c r="I2143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2144">
+        <v>1</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2144" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2145" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2145" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2145" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2145" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2145" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2145" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2146">
+        <v>1</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>914</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2146" s="4">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2147">
+        <v>1</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2147" s="4">
+        <v>44400</v>
+      </c>
+      <c r="I2147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2148" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2148" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2148" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2148" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>891</v>
+      </c>
+      <c r="G2148" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2148" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2149" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2149" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2149" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2149" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2149" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2150" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C2150" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2150" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>880</v>
+      </c>
+      <c r="G2150" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2150" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2151" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2151" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2151" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2151" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2151" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2152" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2152" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2152" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2152" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2152" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2152" s="4">
+        <v>44403</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2153" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2153" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2153" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2153" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2153" s="4">
+        <v>44403</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2154">
+        <v>1</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>907</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2154" s="4">
+        <v>44404</v>
+      </c>
+      <c r="I2154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2155">
+        <v>1</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2155" s="4">
+        <v>44404</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2156" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2156" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2156" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2156" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2156" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2157">
+        <v>1</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2157" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2158">
+        <v>1</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2158" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2159">
+        <v>1</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2159" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2160" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2160" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2160" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2160" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2160" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2160" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2161" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2161" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2161" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>894</v>
+      </c>
+      <c r="G2161" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2161" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2162" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2162" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2162" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2162" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>895</v>
+      </c>
+      <c r="G2162" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2162" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2163" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2163" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2163" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>896</v>
+      </c>
+      <c r="G2163" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2163" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2164">
+        <v>1</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>915</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2164" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2165">
+        <v>1</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2165" s="4">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2166">
+        <v>1</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2166" s="4">
+        <v>44406</v>
+      </c>
+      <c r="I2166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2167" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2167" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2167" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2167" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2167" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2167" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2168" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2168" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2168" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2168" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2168" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2169" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2169" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2169" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2169" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2169" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2169" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2170" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2170" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2170" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2170" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2170" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2171" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2171" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2171" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2171" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2171" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2171" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2172" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2172" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2172" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2172" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2172" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2173" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2173" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2173" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2173" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2173" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2173" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2174" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2174" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2174" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2174" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2175" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2175" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2175" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2175" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2175" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2175" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2176" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2176" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2176" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2176" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2176" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2176" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2177" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2177" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2177" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2177" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2177" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2178" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2178" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2178" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2178" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2178" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2178" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2179" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2179" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2179" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2179" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2179" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2180" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2180" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2180" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2180" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2180" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2181">
+        <v>1</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2181" s="4">
+        <v>44406</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2182">
+        <v>2</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2182" s="4">
+        <v>44406</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1999" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1811">
-      <sortCondition ref="H1:H1811"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1977">
-    <sortCondition ref="H2:H1977"/>
-    <sortCondition ref="C2:C1977"/>
-    <sortCondition ref="D2:D1977"/>
+  <autoFilter ref="A1:J2182" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2182">
+    <sortCondition ref="H2:H2182"/>
+    <sortCondition ref="C2:C2182"/>
+    <sortCondition ref="D2:D2182"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58559,31 +63505,31 @@
           <x14:formula1>
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I1048576</xm:sqref>
+          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I2076 I2183:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A1048576</xm:sqref>
+          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A2076 A2183:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4764F04E-0C3B-462E-9979-614E31EB05C7}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G1048576</xm:sqref>
+          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G2076 G2183:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D552 D555:D1583 D1585:D1048576</xm:sqref>
+          <xm:sqref>D2:D552 D555:D1583 D1585:D2076 D2183:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$124</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C1048576</xm:sqref>
+          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C2076 C2183:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data/Arch/Wiesbaden First Pass Acceptance.xlsx
+++ b/data/Arch/Wiesbaden First Pass Acceptance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43493C8-5420-47A1-B7DC-C92A86AFF72B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4F255-C841-4DA6-BC2A-EFF4A85D90C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1725" windowWidth="20430" windowHeight="10995" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18000" windowHeight="12735" activeTab="1" xr2:uid="{203EF309-F09C-46D6-B42C-975B3263EA61}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14168" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14186" uniqueCount="918">
   <si>
     <t>SQA</t>
   </si>
@@ -2786,6 +2786,9 @@
   </si>
   <si>
     <t>WI_C 35</t>
+  </si>
+  <si>
+    <t>WI_C23</t>
   </si>
 </sst>
 </file>
@@ -3668,11 +3671,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D811D2-7FE2-4400-8864-3E57D05FCB66}">
-  <dimension ref="A1:J2182"/>
+  <dimension ref="A1:J2185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2183" sqref="A2183"/>
+      <pane ySplit="1" topLeftCell="A2164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2185" sqref="C2185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63488,6 +63491,84 @@
         <v>44406</v>
       </c>
     </row>
+    <row r="2183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2183" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2183" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2183" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2183" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2183" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2183" s="4">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2184" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2184" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2184" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2184" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2184" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2184" s="4">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2185" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2185" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2185" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>917</v>
+      </c>
+      <c r="G2185" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2185" s="4">
+        <v>44411</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2182" xr:uid="{666A33B2-D072-48D0-88E3-92275EF5620C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J2182">
@@ -63505,31 +63586,31 @@
           <x14:formula1>
             <xm:f>Config!$D$2:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I2076 I2183:I1048576</xm:sqref>
+          <xm:sqref>I2:I300 I302:I1583 I1585:I1661 I1663:I2076 I2186:I1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C869D3-BE0F-4D79-B0ED-E3C1B1A79587}">
           <x14:formula1>
             <xm:f>Config!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A2076 A2183:A1048576</xm:sqref>
+          <xm:sqref>A2:A552 A555:A556 A562:A1583 A1585:A2076 A2186:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4764F04E-0C3B-462E-9979-614E31EB05C7}">
           <x14:formula1>
             <xm:f>Config!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G2076 G2183:G1048576</xm:sqref>
+          <xm:sqref>G2:G552 G556 G558:G559 G562:G1583 G1585:G2076 G2186:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF95E1C6-5B3F-419D-ADFD-AA23C2C80F28}">
           <x14:formula1>
             <xm:f>Config!$C$2:$C$51</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D552 D555:D1583 D1585:D2076 D2183:D1048576</xm:sqref>
+          <xm:sqref>D2:D552 D555:D1583 D1585:D2076 D2186:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D434A2C-7767-4A66-A150-E372D25D3050}">
           <x14:formula1>
             <xm:f>Config!$B$2:$B$124</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C2076 C2183:C1048576</xm:sqref>
+          <xm:sqref>C2:C475 C562:C1583 C477:C552 C555:C556 C1585:C2076 C2186:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
